--- a/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
@@ -466,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -635,6 +635,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,7 +925,7 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C29" sqref="C29:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -927,12 +933,11 @@
     <col min="1" max="1" width="1.6640625" style="26" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="26" customWidth="1"/>
     <col min="3" max="3" width="7" style="26" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="26" customWidth="1"/>
+    <col min="4" max="5" width="7.1640625" style="26" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10" style="26" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="26" customWidth="1"/>
     <col min="10" max="16384" width="14.5" style="26"/>
   </cols>
   <sheetData>
@@ -979,13 +984,13 @@
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="2:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:13" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="37"/>
       <c r="G5" s="7" t="s">
         <v>0</v>
@@ -1394,10 +1399,11 @@
       <c r="I31" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>{meta:invoice_type}</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>{meta:sub_service_cost}</t>
+  </si>
+  <si>
+    <t>Tax Deducted @ {meta:tds_tax_rate}</t>
+  </si>
+  <si>
+    <t>{meta:tds}</t>
   </si>
   <si>
     <t>GRAND TOTAL</t>
@@ -377,16 +383,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -453,7 +456,7 @@
     <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -493,9 +496,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -527,54 +527,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
@@ -582,206 +582,206 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="1"/>
@@ -791,28 +791,28 @@
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>0.0</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="1"/>
@@ -822,14 +822,14 @@
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -837,14 +837,14 @@
     </row>
     <row r="18">
       <c r="A18" s="1"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -852,18 +852,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="33" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="32" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="1"/>
@@ -873,20 +873,20 @@
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="15"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -894,14 +894,14 @@
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="15"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -909,10 +909,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>14.0</v>
       </c>
       <c r="D22" s="1"/>
@@ -920,7 +920,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>35</v>
       </c>
       <c r="J22" s="1"/>
@@ -930,10 +930,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>0.5</v>
       </c>
       <c r="D23" s="1"/>
@@ -941,7 +941,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="1"/>
@@ -951,10 +951,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>0.5</v>
       </c>
       <c r="D24" s="1"/>
@@ -962,7 +962,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J24" s="1"/>
@@ -972,14 +972,14 @@
     </row>
     <row r="25">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="15"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -987,18 +987,18 @@
     </row>
     <row r="26">
       <c r="A26" s="1"/>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="38" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="37" t="s">
         <v>41</v>
       </c>
       <c r="J26" s="1"/>
@@ -1008,16 +1008,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="24" t="s">
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="37" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="1"/>
@@ -1027,14 +1027,18 @@
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="15"/>
+      <c r="B28" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1042,13 +1046,14 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="15"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1056,14 +1061,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
+      <c r="B30" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="14"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1071,20 +1075,35 @@
     </row>
     <row r="31">
       <c r="A31" s="1"/>
-      <c r="B31" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
+    <row r="32">
+      <c r="A32" s="1"/>
+      <c r="B32" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:H31"/>
+    <mergeCell ref="B32:I32"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>{meta:invoice_type}</t>
   </si>
@@ -137,12 +137,6 @@
   </si>
   <si>
     <t>{meta:sub_service_cost}</t>
-  </si>
-  <si>
-    <t>Tax Deducted @ {meta:tds_tax_rate}</t>
-  </si>
-  <si>
-    <t>{meta:tds}</t>
   </si>
   <si>
     <t>GRAND TOTAL</t>
@@ -1008,16 +1002,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="23" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="1"/>
@@ -1027,18 +1021,14 @@
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1046,13 +1036,12 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="B29" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="I29" s="14"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1061,13 +1050,14 @@
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="14"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1075,35 +1065,20 @@
     </row>
     <row r="31">
       <c r="A31" s="1"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="40"/>
+      <c r="B31" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:H31"/>
-    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
@@ -1,193 +1,243 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
-  <si>
-    <t>{meta:invoice_type}</t>
-  </si>
-  <si>
-    <t>{meta:vendor_name}</t>
-  </si>
-  <si>
-    <t>{meta:vendor_address}</t>
-  </si>
-  <si>
-    <t>Invoice Number: {meta:invoice_id}</t>
-  </si>
-  <si>
-    <t>Service Tax: {meta:service_tax_no}</t>
-  </si>
-  <si>
-    <t>Invoice Date: {meta:invoice_date}</t>
-  </si>
-  <si>
-    <t>TIN/VAT: {meta:tin}</t>
-  </si>
-  <si>
-    <t>Service Period: {meta:sd} - {meta:ed}</t>
-  </si>
-  <si>
-    <t>BILL TO:</t>
-  </si>
-  <si>
-    <t>Blackmelon Advance Technology Co. Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>92C/1, Lane 7, East Azad Nagar, DELHI 110051</t>
-  </si>
-  <si>
-    <t>Service Tax Number: AAFCB1281JSD001</t>
-  </si>
-  <si>
-    <t>TIN Number: 07627112651</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Tax (%)</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Rate (Rs.)</t>
-  </si>
-  <si>
-    <t>Total Parts (Rs.)</t>
-  </si>
-  <si>
-    <t>Installation Charges</t>
-  </si>
-  <si>
-    <t>Upcountry Charges</t>
-  </si>
-  <si>
-    <t>Total Service Charge (Rs.)</t>
-  </si>
-  <si>
-    <t>{booking:description}</t>
-  </si>
-  <si>
-    <t>{booking:p_tax_rate}</t>
-  </si>
-  <si>
-    <t>{booking:qty}</t>
-  </si>
-  <si>
-    <t>{booking:p_rate}</t>
-  </si>
-  <si>
-    <t>{booking:p_part_cost}</t>
-  </si>
-  <si>
-    <t>{booking:s_service_charge}</t>
-  </si>
-  <si>
-    <t>{booking:s_total_service_charge}</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>{meta:total_part_cost}</t>
-  </si>
-  <si>
-    <t>{meta:total_service_cost}</t>
-  </si>
-  <si>
-    <t>VAT</t>
-  </si>
-  <si>
-    <t>{meta:vat_tax}</t>
-  </si>
-  <si>
-    <t>{meta:part_cost_vat}</t>
-  </si>
-  <si>
-    <t>Service Tax</t>
-  </si>
-  <si>
-    <t>{meta:total_service_cost_14}</t>
-  </si>
-  <si>
-    <t>Swachh Bharat Cess</t>
-  </si>
-  <si>
-    <t>{meta:total_service_cost_5}</t>
-  </si>
-  <si>
-    <t>Krishi Kalyan Cess</t>
-  </si>
-  <si>
-    <t>SUB-TOTAL</t>
-  </si>
-  <si>
-    <t>{meta:sub_part}</t>
-  </si>
-  <si>
-    <t>{meta:sub_service_cost}</t>
-  </si>
-  <si>
-    <t>GRAND TOTAL</t>
-  </si>
-  <si>
-    <t>{meta:grand_total_price}</t>
-  </si>
-  <si>
-    <t>Total Amount (in words):</t>
-  </si>
-  <si>
-    <t>{meta:price_inword}</t>
-  </si>
-  <si>
-    <t>This is a computer generated invoice, no signature is required.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+  <si>
+    <t xml:space="preserve">{meta:invoice_type}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:vendor_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:vendor_address}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice Number: {meta:invoice_id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Tax: {meta:service_tax_no}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice Date: {meta:invoice_date}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIN/VAT: {meta:tin}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Period: {meta:sd} - {meta:ed}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BILL TO:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackmelon Advance Technology Co. Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92C/1, Lane 7, East Azad Nagar, DELHI 110051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Tax Number: AAFCB1281JSD001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIN Number: 07627112651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate (Rs.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Parts (Rs.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upcountry Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Service Charge (Rs.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{booking:description}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{booking:p_tax_rate}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{booking:qty}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{booking:p_rate}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{booking:p_part_cost}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{booking:s_service_charge}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{booking:upcountry_distance}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{booking:s_total_service_charge}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:total_part_cost}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:total_service_cost}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:vat_tax}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:part_cost_vat}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:total_service_cost_14}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swachh Bharat Cess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:total_service_cost_5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishi Kalyan Cess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB-TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:sub_part}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:sub_service_cost}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAND TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:grand_total_price}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Amount (in words):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:price_inword}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a computer generated invoice, no signature is required.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <sz val="18.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -195,331 +245,362 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="18">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top style="medium"/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top style="medium"/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="medium"/>
+      <top style="medium"/>
       <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right style="medium"/>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right style="medium"/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="medium"/>
+      <top style="thin"/>
       <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right style="medium"/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom style="medium"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="41">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -534,7 +615,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -551,7 +632,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
@@ -566,7 +647,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="10" t="s">
         <v>1</v>
@@ -583,11 +664,14 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1"/>
       <c r="G5" s="13" t="s">
         <v>3</v>
@@ -599,7 +683,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="15" t="s">
         <v>4</v>
@@ -618,7 +702,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="15" t="s">
         <v>6</v>
@@ -637,7 +721,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="17"/>
       <c r="C8" s="9"/>
@@ -652,7 +736,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="18" t="s">
         <v>8</v>
@@ -669,7 +753,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="18" t="s">
         <v>9</v>
@@ -686,7 +770,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>10</v>
@@ -703,7 +787,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="15" t="s">
         <v>11</v>
@@ -720,7 +804,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="15" t="s">
         <v>12</v>
@@ -737,7 +821,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="20"/>
       <c r="C14" s="9"/>
@@ -752,7 +836,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="21" t="s">
         <v>13</v>
@@ -783,38 +867,38 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="16">
-        <v>0.0</v>
+      <c r="H16" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1"/>
@@ -829,7 +913,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
@@ -844,39 +928,39 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -886,7 +970,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="6"/>
       <c r="C21" s="1"/>
@@ -901,13 +985,13 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="16">
-        <v>14.0</v>
+        <v>35</v>
+      </c>
+      <c r="C22" s="16" t="n">
+        <v>14</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -915,19 +999,19 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
-      <c r="B23" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="16">
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="16" t="n">
         <v>0.5</v>
       </c>
       <c r="D23" s="1"/>
@@ -936,19 +1020,19 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
-      <c r="B24" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="16">
+      <c r="B24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="16" t="n">
         <v>0.5</v>
       </c>
       <c r="D24" s="1"/>
@@ -957,14 +1041,14 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1"/>
@@ -979,47 +1063,47 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
-      <c r="B26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36" t="s">
+      <c r="B26" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="37" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35" t="s">
         <v>41</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+        <v>43</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
       <c r="I27" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
       <c r="C28" s="1"/>
@@ -1034,40 +1118,52 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
-      <c r="B29" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="37" t="s">
         <v>45</v>
       </c>
+      <c r="C29" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
       <c r="I29" s="14"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
-      <c r="B31" s="41" t="s">
-        <v>46</v>
-      </c>
+      <c r="B31" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1080,6 +1176,12 @@
     <mergeCell ref="C29:H30"/>
     <mergeCell ref="B31:I31"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>{meta:invoice_type}</t>
   </si>
@@ -81,10 +81,6 @@
 (Rs.)</t>
   </si>
   <si>
-    <t>Installation 
-Charges</t>
-  </si>
-  <si>
     <t>{booking:description}</t>
   </si>
   <si>
@@ -170,18 +166,25 @@
 (Rs.)</t>
   </si>
   <si>
-    <t>Total Service 
-Charges (Rs.)</t>
-  </si>
-  <si>
-    <t>Tax  (%)</t>
-  </si>
-  <si>
     <t>Misc
 Charges</t>
   </si>
   <si>
     <t>Total Amount (in words):</t>
+  </si>
+  <si>
+    <t>Tax  
+(%)</t>
+  </si>
+  <si>
+    <t>Service 
+Charges</t>
+  </si>
+  <si>
+    <t>Total Charges (Rs.)</t>
+  </si>
+  <si>
+    <t>31st Mar, 2017</t>
   </si>
 </sst>
 </file>
@@ -197,44 +200,41 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
@@ -254,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -349,57 +349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -441,163 +390,315 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -877,41 +978,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="13" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="0.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="15" customWidth="1"/>
+    <col min="3" max="5" width="4.83203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="15" customWidth="1"/>
+    <col min="7" max="8" width="7" style="15" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="15" customWidth="1"/>
+    <col min="10" max="13" width="8.83203125" style="15"/>
+    <col min="14" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
+    <row r="1" spans="1:13" ht="2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
@@ -922,36 +1023,36 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="10"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
@@ -960,100 +1061,103 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="15"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="10"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="20"/>
@@ -1063,14 +1167,14 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="20"/>
@@ -1080,8 +1184,8 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="10"/>
@@ -1097,8 +1201,8 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="10"/>
@@ -1114,8 +1218,8 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -1128,351 +1232,322 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="I15" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="25" t="s">
+      <c r="C16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="40">
+        <v>14</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="17">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="43" t="s">
+      <c r="C27" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="48" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B29:I29"/>
     <mergeCell ref="B5:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>{meta:invoice_type}</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Total Charges (Rs.)</t>
-  </si>
-  <si>
-    <t>31st Mar, 2017</t>
   </si>
 </sst>
 </file>
@@ -539,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -699,6 +696,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -980,18 +983,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="0.6640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="15" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="15" customWidth="1"/>
-    <col min="7" max="8" width="7" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="15" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="15" customWidth="1"/>
     <col min="10" max="13" width="8.83203125" style="15"/>
     <col min="14" max="16384" width="8.83203125" style="2"/>
   </cols>
@@ -1068,11 +1072,12 @@
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="16"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="10"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -1089,9 +1094,7 @@
       <c r="F6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="G6" s="18"/>
       <c r="H6" s="1"/>
       <c r="I6" s="16"/>
       <c r="J6" s="12"/>
@@ -1540,11 +1543,12 @@
       <c r="M29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:H28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-FoC-v5.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>{meta:invoice_type}</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>VAT</t>
-  </si>
-  <si>
-    <t>{meta:vat_tax}</t>
   </si>
   <si>
     <t>{meta:part_cost_vat}</t>
@@ -536,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -703,6 +700,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,7 +984,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1241,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>14</v>
@@ -1250,16 +1250,16 @@
         <v>15</v>
       </c>
       <c r="F15" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="I15" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>48</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1325,13 +1325,13 @@
       <c r="B18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>29</v>
+      <c r="C18" s="57">
+        <v>5</v>
       </c>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
@@ -1359,7 +1359,7 @@
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="40">
         <v>14</v>
@@ -1370,7 +1370,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1380,7 +1380,7 @@
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="40">
         <v>0.5</v>
@@ -1391,7 +1391,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1401,7 +1401,7 @@
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="40">
         <v>0.5</v>
@@ -1412,7 +1412,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1437,20 +1437,20 @@
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="40" t="s">
         <v>26</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1460,7 +1460,7 @@
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -1469,7 +1469,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1494,10 +1494,10 @@
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="50"/>
@@ -1528,7 +1528,7 @@
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
